--- a/GameData/PlayerStat.xlsx
+++ b/GameData/PlayerStat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\WarriorRPG\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D620D-269B-4547-9F95-E8178C12E608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC81DA-A449-4BF4-8C90-738435C77877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3870" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{4BA4F8DD-0C7B-4ABB-99EB-1D810BCD77DE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>NextExp</t>
+  </si>
+  <si>
+    <t>MaxMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598BD206-616C-46B6-B7C4-957384A07BBD}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -428,7 +432,7 @@
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,13 +443,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -459,10 +466,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -473,13 +483,16 @@
         <v>200</v>
       </c>
       <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -490,13 +503,16 @@
         <v>300</v>
       </c>
       <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -507,13 +523,16 @@
         <v>400</v>
       </c>
       <c r="D5" s="1">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -524,13 +543,16 @@
         <v>500</v>
       </c>
       <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
         <v>30</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -541,13 +563,16 @@
         <v>600</v>
       </c>
       <c r="D7" s="1">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1">
         <v>35</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -558,13 +583,16 @@
         <v>700</v>
       </c>
       <c r="D8" s="1">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1">
         <v>40</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -575,13 +603,16 @@
         <v>800</v>
       </c>
       <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
         <v>45</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -592,13 +623,16 @@
         <v>900</v>
       </c>
       <c r="D10" s="1">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -609,9 +643,12 @@
         <v>1000</v>
       </c>
       <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
         <v>55</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>-1</v>
       </c>
     </row>
